--- a/crossflow_microfiltration_particulate.xlsx
+++ b/crossflow_microfiltration_particulate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucfil\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73959dfda6c31506/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619E83D-B761-47B7-91A0-040DD5D7179B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93AFC04B-F92F-4F21-BF11-050D4233D37F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{73F5F724-D13E-434B-BE25-656CAA80350B}"/>
   </bookViews>
@@ -138,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -172,6 +172,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +502,16 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -510,450 +528,450 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="12">
         <v>0.25</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="13">
         <v>15.71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <v>0.25</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <v>0.25</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="12">
         <v>40</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="13">
         <v>33.33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="12">
         <v>0.25</v>
       </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
         <v>30</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="13">
         <v>89.18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <v>0.25</v>
       </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
         <v>93.76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="12">
         <v>0.25</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
         <v>90</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="13">
         <v>59.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="12">
         <v>0.25</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="12">
         <v>70</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="13">
         <v>111.36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="12">
         <v>0.38</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <v>23.44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <v>0.38</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
         <v>40</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="13">
         <v>25.88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="12">
         <v>0.38</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>50</v>
+      </c>
+      <c r="D11" s="13">
         <v>24.84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="12">
         <v>0.38</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="12">
         <v>20</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="13">
         <v>38.64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="12">
         <v>0.38</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="12">
         <v>30</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="13">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>0.38</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="12">
+        <v>50</v>
+      </c>
+      <c r="D14" s="13">
         <v>141.86000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
         <v>20</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="13">
         <v>28.72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="A16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
         <v>60</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="13">
         <v>23.08</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="A17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
         <v>70</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="13">
         <v>19.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="12">
         <v>70</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="13">
         <v>55.32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="A19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="12">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
         <v>20</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="13">
         <v>41.03</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="A20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="12">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12">
         <v>90</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="13">
         <v>51.61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="12">
         <v>10</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="12">
         <v>40</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="13">
         <v>162.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="A22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="12">
         <v>10</v>
       </c>
-      <c r="C22" s="1">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="12">
+        <v>50</v>
+      </c>
+      <c r="D22" s="13">
         <v>127.86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <v>0.63</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>50</v>
+      </c>
+      <c r="D23" s="13">
         <v>24.28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <v>0.63</v>
       </c>
-      <c r="B24" s="1">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="12">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12">
         <v>30</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="13">
         <v>95.65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="12">
         <v>0.69</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>50</v>
+      </c>
+      <c r="D25" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="12">
         <v>0.75</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="12">
         <v>2</v>
       </c>
-      <c r="C26" s="1">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="12">
+        <v>50</v>
+      </c>
+      <c r="D26" s="13">
         <v>63.41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="12">
         <v>0.75</v>
       </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="12">
+        <v>5</v>
+      </c>
+      <c r="C27" s="12">
         <v>30</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="13">
         <v>67.31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <v>0.75</v>
       </c>
-      <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="12">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12">
         <v>40</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="13">
         <v>95.31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <v>0.75</v>
       </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="12">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12">
+        <v>50</v>
+      </c>
+      <c r="D29" s="13">
         <v>119.05</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <v>0.75</v>
       </c>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="12">
+        <v>5</v>
+      </c>
+      <c r="C30" s="12">
         <v>70</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <v>0.75</v>
       </c>
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="12">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12">
         <v>90</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="13">
         <v>90.36</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="12">
         <v>0.75</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="12">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="12">
         <v>30</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="13">
         <v>114.28</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="14">
         <v>0.75</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="14">
         <v>10</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="14">
         <v>70</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="15">
         <v>191.8</v>
       </c>
     </row>
@@ -1094,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6252E332-098D-4A3E-A48C-612DEC5876F2}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:E40"/>
     </sheetView>
   </sheetViews>
